--- a/biology/Botanique/Parc_Saint-Remi/Parc_Saint-Remi.xlsx
+++ b/biology/Botanique/Parc_Saint-Remi/Parc_Saint-Remi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Saint-Remi est un parc public de la ville de Reims, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est accessible par la rue Simon, par la rue Saint-Julien et par la rue du Grand Cerf.
 </t>
@@ -543,9 +557,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc Saint-Remi a été réalisé en 1976, par le paysagiste Jean Camand au cœur de l’emplacement des jardins de l’ancienne abbaye de Saint-Remi[1] devenu musée régional. Le "Jardin de saint-Remi" était approximativement situé entre la rue Simon, le faubourg Fléchambault, les remparts et la rue du Ruisselet. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc Saint-Remi a été réalisé en 1976, par le paysagiste Jean Camand au cœur de l’emplacement des jardins de l’ancienne abbaye de Saint-Remi devenu musée régional. Le "Jardin de saint-Remi" était approximativement situé entre la rue Simon, le faubourg Fléchambault, les remparts et la rue du Ruisselet. 
 Ce parc, qui est situé dans le Quartier Barbâtre - Saint-Remi - Verrerie, porte le nom d’un évêque français, Remi de Reims qui baptisa le roi Clovis.
 			Jardins de l’ancienne abbaye de Saint-Remi sur le plan Héteau 1844.
 			Accueillant un concert de l'Harmonie du 3e canton avec le musée et l'église en arrière plan.
@@ -577,9 +593,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce parc, de 1,2 hectare, possède de grands arbres avec un important couvert végétal. Il possède quelques arbres remarquables ; arbre de fer, Noisetier tortueux, Cyprès de Notka pleureur, Arbre de Judée et des érables pourpre. Le parc Saint-Remi s’apprête a été revu dans son ensemble du mois d’octobre 2020 à fin novembre 2021[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce parc, de 1,2 hectare, possède de grands arbres avec un important couvert végétal. Il possède quelques arbres remarquables ; arbre de fer, Noisetier tortueux, Cyprès de Notka pleureur, Arbre de Judée et des érables pourpre. Le parc Saint-Remi s’apprête a été revu dans son ensemble du mois d’octobre 2020 à fin novembre 2021.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il comporte des aménagements destinés aux enfants et adultes (aire de jeux, une borne-fontaine), et pour les chiens une aire canine.
 </t>
@@ -639,11 +659,13 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé à côté de la basilique Saint-Remi de Reims,  du musée Saint-Remi de Reims, des ruines de l’ancienne église Saint-Julien avec  à proximité la statue du baptême de Clovis, côté sud, et la statue de Pierre Le Grand offerte par la Russie côté rue Simon. 
 A l'intérieur du parc figure : 
-Un obélisque russe[3], en granit, a été érigé à la mémoire de soldats et officiers russes tombés au champ d’Honneur à la bataille de Reims le 13 mars 1814.
+Un obélisque russe, en granit, a été érigé à la mémoire de soldats et officiers russes tombés au champ d’Honneur à la bataille de Reims le 13 mars 1814.
 Les ruines des remparts qui entouraient l'abbaye Saint-Remi. Elles sont visible aussi de la rue du  Grand-Cerf.
 De même, des puits d'aération des crayères des XVIII et XIX siècles, dits "essors", sont visibles dans le parc.
 			Mémorial à A. Petit, musicien.
